--- a/Functional Programming Grade Calculating Spreadsheet - 2019 Fall.xlsx
+++ b/Functional Programming Grade Calculating Spreadsheet - 2019 Fall.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clean Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BScFunctionalProgramming-2020-Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C453EB68-E276-4157-883B-E1F918A3AF10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B05FD2-5E6F-4669-AAFF-4E34F113C579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,9 +36,6 @@
     <t>Homework</t>
   </si>
   <si>
-    <t>Classwork</t>
-  </si>
-  <si>
     <t>Theoretical Understanding</t>
   </si>
   <si>
@@ -56,9 +51,6 @@
     <t>Homework 1</t>
   </si>
   <si>
-    <t>Classwork 1</t>
-  </si>
-  <si>
     <t>Quiz 1</t>
   </si>
   <si>
@@ -68,15 +60,9 @@
     <t>Coding Endterm</t>
   </si>
   <si>
-    <t>Classwork:</t>
-  </si>
-  <si>
     <t>Homework 2</t>
   </si>
   <si>
-    <t>Classwork 2</t>
-  </si>
-  <si>
     <t>Quiz 2</t>
   </si>
   <si>
@@ -86,9 +72,6 @@
     <t>Homework 3</t>
   </si>
   <si>
-    <t>Classwork 3</t>
-  </si>
-  <si>
     <t>Quiz 3</t>
   </si>
   <si>
@@ -98,9 +81,6 @@
     <t>Homework 4</t>
   </si>
   <si>
-    <t>Classwork 4</t>
-  </si>
-  <si>
     <t>Quiz 4</t>
   </si>
   <si>
@@ -110,18 +90,12 @@
     <t>Homework 5</t>
   </si>
   <si>
-    <t>Classwork 5</t>
-  </si>
-  <si>
     <t>Quiz 5</t>
   </si>
   <si>
     <t>Homework 6</t>
   </si>
   <si>
-    <t>Classwork 6</t>
-  </si>
-  <si>
     <t>Quiz 6</t>
   </si>
   <si>
@@ -131,36 +105,24 @@
     <t>Homework 7</t>
   </si>
   <si>
-    <t>Classwork 7</t>
-  </si>
-  <si>
     <t>Quiz 7</t>
   </si>
   <si>
     <t>Homework 8</t>
   </si>
   <si>
-    <t>Classwork 8</t>
-  </si>
-  <si>
     <t>Quiz 8</t>
   </si>
   <si>
     <t>Homework 9</t>
   </si>
   <si>
-    <t>Classwork 9</t>
-  </si>
-  <si>
     <t>Quiz 9</t>
   </si>
   <si>
     <t>Homework 10</t>
   </si>
   <si>
-    <t>Classwork 10</t>
-  </si>
-  <si>
     <t>Quiz 10</t>
   </si>
   <si>
@@ -177,6 +139,42 @@
   </si>
   <si>
     <t>Red Dot Exercises</t>
+  </si>
+  <si>
+    <t>Progress Tasks</t>
+  </si>
+  <si>
+    <t>Progress Task 1</t>
+  </si>
+  <si>
+    <t>Progress Task 2</t>
+  </si>
+  <si>
+    <t>Progress Task 3</t>
+  </si>
+  <si>
+    <t>Progress Task 4</t>
+  </si>
+  <si>
+    <t>Progress Task 5</t>
+  </si>
+  <si>
+    <t>Progress Task 6</t>
+  </si>
+  <si>
+    <t>Progress Task 7</t>
+  </si>
+  <si>
+    <t>Progress Task 8</t>
+  </si>
+  <si>
+    <t>Progress Task 9</t>
+  </si>
+  <si>
+    <t>Progress Task 10</t>
+  </si>
+  <si>
+    <t>Progress Tasks:</t>
   </si>
 </sst>
 </file>
@@ -966,11 +964,12 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" customWidth="1"/>
   </cols>
@@ -985,19 +984,19 @@
       </c>
       <c r="D1" s="22"/>
       <c r="E1" s="39" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="22"/>
       <c r="I1" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="1"/>
@@ -1017,38 +1016,38 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <f>IF(AVERAGE(F2:F11)/100&gt;AVERAGE(D2:D11)/100,(D15/1000)+AVERAGE(D2:D11)/100,AVERAGE(D2:D11)/100)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <f>IF(AVERAGE(F2:F11)/100&gt;=AVERAGE(D2:D11)/100,(D15/1000)+AVERAGE(D2:D11)/100,AVERAGE(D2:D11)/100)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5">
+        <v>100</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="5">
-        <v>100</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5">
-        <v>100</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="H2" s="5">
         <v>5</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2" s="9">
         <v>100</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L2" s="9">
         <v>100</v>
@@ -1056,26 +1055,26 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3">
-        <f>IF(AVERAGE(F2:F11)/100&lt;AVERAGE(D2:D11)/100,(D15/1000)+AVERAGE(F2:F11)/100,AVERAGE(F2:F11)/100)</f>
-        <v>1</v>
+        <f>IF(AVERAGE(F2:F11)/100&lt;=AVERAGE(D2:D11)/100,(D15/1000)+AVERAGE(F2:F11)/100,AVERAGE(F2:F11)/100)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" s="12">
         <v>100</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F3" s="12">
         <v>100</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H3" s="12">
         <v>5</v>
@@ -1083,26 +1082,26 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <f>SUM(H2:H11,H13:H14)/100</f>
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="12">
         <v>100</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F4" s="12">
         <v>100</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H4" s="12">
         <v>5</v>
@@ -1110,26 +1109,26 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
         <f>J2/100</f>
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5" s="12">
         <v>100</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F5" s="12">
         <v>100</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H5" s="12">
         <v>5</v>
@@ -1137,26 +1136,26 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <f>L2/100</f>
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="12">
         <v>100</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F6" s="12">
         <v>100</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H6" s="12">
         <v>5</v>
@@ -1164,19 +1163,19 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C7" s="11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D7" s="12">
         <v>100</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F7" s="12">
         <v>100</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H7" s="12">
         <v>5</v>
@@ -1184,26 +1183,26 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3">
         <f>AVERAGE(B2:B6)</f>
         <v>1.02</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D8" s="12">
         <v>100</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F8" s="12">
         <v>100</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H8" s="12">
         <v>5</v>
@@ -1211,19 +1210,19 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C9" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D9" s="12">
         <v>100</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F9" s="12">
         <v>100</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H9" s="12">
         <v>5</v>
@@ -1231,19 +1230,19 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C10" s="11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D10" s="12">
         <v>100</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F10" s="12">
         <v>100</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H10" s="12">
         <v>5</v>
@@ -1251,19 +1250,19 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C11" s="15" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D11" s="16">
         <v>100</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F11" s="16">
         <v>100</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H11" s="12">
         <v>5</v>
@@ -1275,7 +1274,7 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G13" s="14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H13" s="12">
         <v>25</v>
@@ -1283,11 +1282,11 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D14" s="40" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E14" s="41"/>
       <c r="G14" s="20" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H14" s="16">
         <v>25</v>
@@ -1301,18 +1300,18 @@
     </row>
     <row r="16" spans="1:26" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="34" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
-        <f>IF(B2&lt;0.44,1,IF(B3&lt;0.44,1,IF(B4&lt;0.44,1,IF(B5&lt;0.4,1,IF(B6&lt;0.4,1,IF(B8&lt;0.44,1,IF(B8&lt;0.55,2,IF(B8&lt;0.7,3,IF(B8&lt;0.85,4,5)))))))))</f>
+        <f>IF(B2&lt;0.5,1,IF(B3&lt;0.5,1,IF(B4&lt;0.5,1,IF(B5&lt;0.5,1,IF(B6&lt;0.5,1,IF(B8&lt;0.5,1,IF(B8&lt;0.61,2,IF(B8&lt;0.71,3,IF(B8&lt;0.86,4,5)))))))))</f>
         <v>5</v>
       </c>
       <c r="B17" s="36"/>
       <c r="D17" s="25" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="27"/>
